--- a/ONCHO/Entomological survey Survey/Nigeria/2024/bauchi/nov 2024/ng_oncho_2411_2_river_inspection_bau.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/bauchi/nov 2024/ng_oncho_2411_2_river_inspection_bau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\bauchi\nov 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEAF32E-003C-4CA3-AC28-F8D0207604E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08349CDD-DF0A-4C5F-9137-77E25985D754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="277">
   <si>
     <t>type</t>
   </si>
@@ -508,12 +508,6 @@
     <t>The river cannot be fast and slow at the same time</t>
   </si>
   <si>
-    <t>ng_oncho_2026_2_river_insp_bau</t>
-  </si>
-  <si>
-    <t>(Bauchi) 2. River inspection Form</t>
-  </si>
-  <si>
     <t>BAUCHI</t>
   </si>
   <si>
@@ -797,6 +791,87 @@
   </si>
   <si>
     <t>community = ${r_community}</t>
+  </si>
+  <si>
+    <t>ng_oncho_2411_2_river_inspection_bau_v2</t>
+  </si>
+  <si>
+    <t>(Bauchi) 2. River inspection Form V2</t>
+  </si>
+  <si>
+    <t>ITAS/GADAU</t>
+  </si>
+  <si>
+    <t>JAMA ARE</t>
+  </si>
+  <si>
+    <t>KATAGUM</t>
+  </si>
+  <si>
+    <t>KAFIN MADAKI</t>
+  </si>
+  <si>
+    <t>SABON GARIN YAMRAT</t>
+  </si>
+  <si>
+    <t>BAKIN KANAKA</t>
+  </si>
+  <si>
+    <t>WAILO</t>
+  </si>
+  <si>
+    <t>ZUBUKI</t>
+  </si>
+  <si>
+    <t>GONGO</t>
+  </si>
+  <si>
+    <t>YAYU</t>
+  </si>
+  <si>
+    <t>GAKA</t>
+  </si>
+  <si>
+    <t>KAWARI</t>
+  </si>
+  <si>
+    <t>BAKIN KOGI</t>
+  </si>
+  <si>
+    <t>BAUSHE ILA</t>
+  </si>
+  <si>
+    <t>BAU_ALK_G_037</t>
+  </si>
+  <si>
+    <t>BAU_TOR_G_038</t>
+  </si>
+  <si>
+    <t>BAU_KIR_E_039</t>
+  </si>
+  <si>
+    <t>BAU_TOR_G_040</t>
+  </si>
+  <si>
+    <t>BAU_BAU_G_041</t>
+  </si>
+  <si>
+    <t>BAU_GAN_G_042</t>
+  </si>
+  <si>
+    <t>BAU_GAN_G_043</t>
+  </si>
+  <si>
+    <t>BAU_NIN_G_044</t>
+  </si>
+  <si>
+    <t>BAU_JAM_G_045</t>
+  </si>
+  <si>
+    <t>BAU_ITA_G_046</t>
+  </si>
+  <si>
+    <t>BAU_KAT_G_047</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1427,7 +1502,7 @@
     </row>
     <row r="3" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>108</v>
@@ -1450,7 +1525,7 @@
     </row>
     <row r="4" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>109</v>
@@ -1469,13 +1544,13 @@
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>110</v>
@@ -1494,13 +1569,13 @@
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>38</v>
@@ -1519,7 +1594,7 @@
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M6" s="7"/>
     </row>
@@ -2166,9 +2241,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2195,7 +2270,7 @@
         <v>106</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2482,10 +2557,10 @@
         <v>107</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2497,13 +2572,13 @@
         <v>106</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2511,13 +2586,13 @@
         <v>106</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2525,13 +2600,13 @@
         <v>106</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2539,13 +2614,13 @@
         <v>106</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2553,13 +2628,13 @@
         <v>106</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2567,13 +2642,13 @@
         <v>106</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2581,13 +2656,13 @@
         <v>106</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2595,13 +2670,13 @@
         <v>106</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2609,13 +2684,13 @@
         <v>106</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2623,13 +2698,13 @@
         <v>106</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>166</v>
+        <v>253</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>166</v>
+        <v>253</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2637,13 +2712,13 @@
         <v>106</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>167</v>
+        <v>254</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>167</v>
+        <v>254</v>
       </c>
       <c r="D44" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2651,13 +2726,13 @@
         <v>106</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2665,13 +2740,13 @@
         <v>106</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2679,13 +2754,13 @@
         <v>106</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2693,13 +2768,13 @@
         <v>106</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D48" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2707,735 +2782,736 @@
         <v>106</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E51" t="s">
-        <v>158</v>
+        <v>170</v>
+      </c>
+      <c r="D51" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="E52" t="s">
-        <v>158</v>
+        <v>167</v>
+      </c>
+      <c r="D52" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>173</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="E53" t="s">
-        <v>158</v>
-      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E54" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="B55" s="21" t="s">
-        <v>178</v>
-      </c>
       <c r="C55" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="E56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E57" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E58" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E59" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="E60" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="E61" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E62" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E63" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E64" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="E65" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E66" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>189</v>
+        <v>257</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>189</v>
+        <v>257</v>
       </c>
       <c r="E67" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E68" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E69" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E70" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="E71" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E72" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>195</v>
+        <v>259</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>195</v>
+        <v>259</v>
       </c>
       <c r="E73" t="s">
-        <v>166</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="E74" t="s">
-        <v>166</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>197</v>
+        <v>261</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>197</v>
+        <v>261</v>
       </c>
       <c r="E75" t="s">
-        <v>167</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E76" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E77" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E78" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="E79" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B80" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E80" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E81" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E82" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="E84" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E85" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E86" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E87" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E88" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E89" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E90" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E91" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="E92" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E93" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="E94" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E95" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C96" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="E80" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>173</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="E81" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>173</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="E82" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>173</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="E83" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>173</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="E84" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>173</v>
-      </c>
-      <c r="B85" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="E85" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="E86" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="F89" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B90" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C91" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="F92" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="F94" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C95" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="F95" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="F96" t="s">
-        <v>162</v>
+      <c r="E96" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="20" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="F97" t="s">
-        <v>183</v>
+        <v>203</v>
+      </c>
+      <c r="E97" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="20" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="F98" t="s">
-        <v>184</v>
+        <v>204</v>
+      </c>
+      <c r="E98" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="20" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="F99" t="s">
-        <v>186</v>
+        <v>205</v>
+      </c>
+      <c r="E99" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="F100" t="s">
-        <v>188</v>
+        <v>206</v>
+      </c>
+      <c r="E100" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="F101" t="s">
-        <v>189</v>
-      </c>
+      <c r="A101" s="20"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="F102" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3443,13 +3519,13 @@
         <v>38</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="F103" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3457,13 +3533,13 @@
         <v>38</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F104" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3471,13 +3547,13 @@
         <v>38</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="F105" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3485,13 +3561,13 @@
         <v>38</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="F106" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3499,13 +3575,13 @@
         <v>38</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3513,13 +3589,13 @@
         <v>38</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F108" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3527,13 +3603,13 @@
         <v>38</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="F109" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3541,13 +3617,13 @@
         <v>38</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3555,13 +3631,13 @@
         <v>38</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3569,13 +3645,13 @@
         <v>38</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3583,13 +3659,13 @@
         <v>38</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="F113" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3597,13 +3673,13 @@
         <v>38</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3611,13 +3687,13 @@
         <v>38</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3625,13 +3701,13 @@
         <v>38</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="F116" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3639,13 +3715,13 @@
         <v>38</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="F117" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3653,10 +3729,10 @@
         <v>38</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F118" t="s">
         <v>192</v>
@@ -3667,13 +3743,13 @@
         <v>38</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="F119" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3681,13 +3757,13 @@
         <v>38</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="F120" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3695,10 +3771,10 @@
         <v>38</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="F121" t="s">
         <v>198</v>
@@ -3709,13 +3785,13 @@
         <v>38</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="F122" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3723,160 +3799,410 @@
         <v>38</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="F123" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>38</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F124" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>38</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="F125" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>38</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="F126" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>38</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="F127" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>38</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F128" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>38</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="F129" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>38</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="F130" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>38</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F131" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>38</v>
+      </c>
+      <c r="B132" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="F132" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>38</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F133" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>38</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F134" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="21"/>
-      <c r="C124" s="21"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="21"/>
-      <c r="C125" s="21"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="21"/>
-      <c r="C126" s="21"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="21"/>
-      <c r="C127" s="21"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="21"/>
-      <c r="C128" s="21"/>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" s="21"/>
-      <c r="C129" s="21"/>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B130" s="21"/>
-      <c r="C130" s="21"/>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B131" s="21"/>
-      <c r="C131" s="21"/>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" s="21"/>
-      <c r="C132" s="21"/>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B133" s="21"/>
-      <c r="C133" s="21"/>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B134" s="21"/>
-      <c r="C134" s="21"/>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" s="21"/>
-      <c r="C135" s="21"/>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" s="21"/>
-      <c r="C136" s="21"/>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" s="21"/>
-      <c r="C137" s="21"/>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" s="21"/>
-      <c r="C138" s="21"/>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" s="21"/>
-      <c r="C139" s="21"/>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" s="21"/>
-      <c r="C140" s="21"/>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="21"/>
-      <c r="C141" s="21"/>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="21"/>
-      <c r="C142" s="21"/>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="21"/>
-      <c r="C143" s="21"/>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="21"/>
-      <c r="C144" s="21"/>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" s="21"/>
-      <c r="C145" s="21"/>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" s="21"/>
-      <c r="C146" s="21"/>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" s="21"/>
-      <c r="C147" s="21"/>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148" s="21"/>
-      <c r="C148" s="21"/>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>38</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="F135" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>38</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="F136" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>38</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F137" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>38</v>
+      </c>
+      <c r="B138" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="F138" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>38</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="F139" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>38</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F140" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>38</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="F141" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>38</v>
+      </c>
+      <c r="B142" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="F142" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>38</v>
+      </c>
+      <c r="B143" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F143" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>38</v>
+      </c>
+      <c r="B144" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="F144" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>38</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="F145" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>38</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="F146" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>38</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="F147" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>38</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="F148" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B149" s="21"/>
       <c r="C149" s="21"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B150" s="21"/>
       <c r="C150" s="21"/>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B151" s="21"/>
       <c r="C151" s="21"/>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" s="21"/>
       <c r="C152" s="21"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B153" s="21"/>
       <c r="C153" s="21"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B154" s="21"/>
       <c r="C154" s="21"/>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B155" s="21"/>
       <c r="C155" s="21"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B156" s="21"/>
       <c r="C156" s="21"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B157" s="21"/>
       <c r="C157" s="21"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B158" s="21"/>
       <c r="C158" s="21"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B159" s="21"/>
       <c r="C159" s="21"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B160" s="21"/>
       <c r="C160" s="21"/>
     </row>
@@ -3931,7 +4257,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3953,12 +4279,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
